--- a/medicine/Enfance/Anne_Le_Coutour/Anne_Le_Coutour.xlsx
+++ b/medicine/Enfance/Anne_Le_Coutour/Anne_Le_Coutour.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anne Le Coutour est une chanteuse lyrique, comédienne et conteuse française née au XXe siècle.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle a un double cursus, dans le théâtre dans la classe de Jean-Laurent Cochet, et de chant lyrique, dans les domaines de la musique ancienne, classique et contemporaine. Elle est devenue professeur au conservatoire Jean Wiener de Bobigny et au studio « Magenia »[1],[2],[3]
-Elle a participé à plusieurs projets artistiques [4],[5],[6],[7]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle a un double cursus, dans le théâtre dans la classe de Jean-Laurent Cochet, et de chant lyrique, dans les domaines de la musique ancienne, classique et contemporaine. Elle est devenue professeur au conservatoire Jean Wiener de Bobigny et au studio « Magenia »
+Elle a participé à plusieurs projets artistiques 
 </t>
         </is>
       </c>
@@ -545,17 +559,20 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Dans des livres-CD
-Légendes de la mer et de la mort en Bretagne, Michel Boedec, 2014
+          <t>Dans des livres-CD</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Légendes de la mer et de la mort en Bretagne, Michel Boedec, 2014
 La Batterie : Igor et la Baguette magique, (2009)
 La Clarinette : le voyage de Théo (2008)
 La Guitare : hôtel de la guitare bleue à la découverte d'un instrument (2008)
 Monsieur Hérisson a disparu : à la découverte du violon (2007)
 Les Rêves de petit cheval : à la découverte du piano(2007)
 Cendrillon, un opéra de Gioacchino Rossini, de Christine Féret-Fleury, Aurélia Fronty  (illustrations), Gallimard Jeunesse, 2006
-Le bureau d'éclaircissement des destins, sur support "Audible". Lecture du roman du même nom par Gaelle Nohant, 2023
-Dans des films
-2006 : Mémoires de médecine de Gilles Moisset</t>
+Le bureau d'éclaircissement des destins, sur support "Audible". Lecture du roman du même nom par Gaelle Nohant, 2023</t>
         </is>
       </c>
     </row>
@@ -580,10 +597,48 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Narratrice</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Dans des films</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2006 : Mémoires de médecine de Gilles Moisset</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Anne_Le_Coutour</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anne_Le_Coutour</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Chanteuse</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Les Orages désirés musique Gerard Condé mise en scène Sugeeta Fribourg, 2009
 Mon imagier de l'alphabet (Livre-CD), Gallimard jeunesse musique, 2005
@@ -591,31 +646,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Anne_Le_Coutour</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Anne_Le_Coutour</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>2018 : Noces de sang, d'après Bodas de sangre de Federico García Lorca, mise en scène Pénélope Biessy
 2012 : Peyotl, court métrage de Julia Mingo, produit par La Femis
@@ -624,37 +681,76 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Anne_Le_Coutour</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Anne_Le_Coutour</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Doublage</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Films
-2023 : Missing : Disparition inquiétante : ? ( ? )[8]
-2023 : Il était une fois... un crime : ? ( ? )
-Séries télévisées
-2023 : Lidia fait sa loi : Matilde Muraro (Francesca De Martini)
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Films</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2023 : Missing : Disparition inquiétante : ? ( ? )
+2023 : Il était une fois... un crime : ? ( ? )</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Anne_Le_Coutour</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anne_Le_Coutour</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Doublage</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Séries télévisées</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2023 : Lidia fait sa loi : Matilde Muraro (Francesca De Martini)
 2023 : Everything Now : ? ( ? )
 2023 : Pacto de silencio : ? ( ? )
 2023 : Yoh! Christmas : ? ( ? )</t>
